--- a/data/georgia_census/mcxeta-mtianeti/dusheti/population_total.xlsx
+++ b/data/georgia_census/mcxeta-mtianeti/dusheti/population_total.xlsx
@@ -1352,13 +1352,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40B0A534-1F95-4EA1-BC97-505980A29853}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BD2232A-2AF0-48B7-A43E-C9DE31D42137}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91A918F8-60F9-4E07-A4F1-8D043B1FB843}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B3D0263-3E01-425E-B99B-1F6C36C97CE3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D523AD9-5BE8-4281-9ECE-8A24A546F4F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B3438E-2BDB-4B98-9EE3-6754C865FC1C}"/>
 </file>